--- a/data/Product.xlsx
+++ b/data/Product.xlsx
@@ -32,183 +32,195 @@
     <t>数量</t>
   </si>
   <si>
+    <t>160003</t>
+  </si>
+  <si>
+    <t>《数据挖掘技术与应用》</t>
+  </si>
+  <si>
+    <t>图书音像</t>
+  </si>
+  <si>
+    <t>当当网</t>
+  </si>
+  <si>
+    <t>清华大学出版社</t>
+  </si>
+  <si>
+    <t>160</t>
+  </si>
+  <si>
+    <t>160002</t>
+  </si>
+  <si>
+    <t>《智能革命》</t>
+  </si>
+  <si>
+    <t>百度</t>
+  </si>
+  <si>
+    <t>中信出版集团</t>
+  </si>
+  <si>
+    <t>200</t>
+  </si>
+  <si>
+    <t>160004</t>
+  </si>
+  <si>
+    <t>《物联网设计》</t>
+  </si>
+  <si>
+    <t>人民邮电出版社</t>
+  </si>
+  <si>
+    <t>170</t>
+  </si>
+  <si>
+    <t>120001</t>
+  </si>
+  <si>
+    <t>美的挂机空调</t>
+  </si>
+  <si>
+    <t>家用电器</t>
+  </si>
+  <si>
+    <t>美的</t>
+  </si>
+  <si>
+    <t>45</t>
+  </si>
+  <si>
+    <t>160005</t>
+  </si>
+  <si>
+    <t>《人间失格》</t>
+  </si>
+  <si>
+    <t>天津出版传媒集团</t>
+  </si>
+  <si>
+    <t>天津人民出版社</t>
+  </si>
+  <si>
+    <t>110003</t>
+  </si>
+  <si>
+    <t>营养快线升级版</t>
+  </si>
+  <si>
+    <t>食品酒水</t>
+  </si>
+  <si>
+    <t>哇哈哈</t>
+  </si>
+  <si>
+    <t>500</t>
+  </si>
+  <si>
+    <t>110004</t>
+  </si>
+  <si>
+    <t>农夫山泉</t>
+  </si>
+  <si>
+    <t>180</t>
+  </si>
+  <si>
+    <t>130001</t>
+  </si>
+  <si>
+    <t>罗技G102</t>
+  </si>
+  <si>
+    <t>电脑办公</t>
+  </si>
+  <si>
+    <t>罗技</t>
+  </si>
+  <si>
+    <t>122</t>
+  </si>
+  <si>
+    <t>130002</t>
+  </si>
+  <si>
+    <t>罗技M100</t>
+  </si>
+  <si>
+    <t>50</t>
+  </si>
+  <si>
+    <t>130003</t>
+  </si>
+  <si>
+    <t>罗技M115</t>
+  </si>
+  <si>
+    <t>80</t>
+  </si>
+  <si>
+    <t>170001</t>
+  </si>
+  <si>
+    <t>水果刀</t>
+  </si>
+  <si>
+    <t>生活用品</t>
+  </si>
+  <si>
+    <t>十八子作</t>
+  </si>
+  <si>
+    <t>160001</t>
+  </si>
+  <si>
+    <t>《一只特立独行的猪》</t>
+  </si>
+  <si>
+    <t>长江文艺出版社</t>
+  </si>
+  <si>
+    <t>220</t>
+  </si>
+  <si>
+    <t>110002</t>
+  </si>
+  <si>
+    <t>卫龙辣条</t>
+  </si>
+  <si>
+    <t>卫龙</t>
+  </si>
+  <si>
+    <t>460</t>
+  </si>
+  <si>
+    <t>160008</t>
+  </si>
+  <si>
+    <t>《大数据技术原理与应用》</t>
+  </si>
+  <si>
+    <t>京东</t>
+  </si>
+  <si>
+    <t>160007</t>
+  </si>
+  <si>
+    <t>《云计算》</t>
+  </si>
+  <si>
+    <t>电子工业出版社</t>
+  </si>
+  <si>
     <t>110001</t>
   </si>
   <si>
     <t>可口可乐</t>
   </si>
   <si>
-    <t>食品酒水</t>
-  </si>
-  <si>
-    <t>200</t>
-  </si>
-  <si>
-    <t>110002</t>
-  </si>
-  <si>
-    <t>卫龙辣条</t>
-  </si>
-  <si>
-    <t>卫龙</t>
-  </si>
-  <si>
-    <t>460</t>
-  </si>
-  <si>
-    <t>110003</t>
-  </si>
-  <si>
-    <t>营养快线升级版</t>
-  </si>
-  <si>
-    <t>哇哈哈</t>
-  </si>
-  <si>
-    <t>500</t>
-  </si>
-  <si>
-    <t>110004</t>
-  </si>
-  <si>
-    <t>农夫山泉</t>
-  </si>
-  <si>
-    <t>180</t>
-  </si>
-  <si>
-    <t>120001</t>
-  </si>
-  <si>
-    <t>美的挂机空调</t>
-  </si>
-  <si>
-    <t>家用电器</t>
-  </si>
-  <si>
-    <t>美的</t>
-  </si>
-  <si>
-    <t>45</t>
-  </si>
-  <si>
-    <t>130001</t>
-  </si>
-  <si>
-    <t>罗技G102</t>
-  </si>
-  <si>
-    <t>电脑办公</t>
-  </si>
-  <si>
-    <t>罗技</t>
-  </si>
-  <si>
-    <t>122</t>
-  </si>
-  <si>
-    <t>130002</t>
-  </si>
-  <si>
-    <t>罗技M100</t>
-  </si>
-  <si>
-    <t>50</t>
-  </si>
-  <si>
-    <t>130003</t>
-  </si>
-  <si>
-    <t>罗技M115</t>
-  </si>
-  <si>
-    <t>80</t>
-  </si>
-  <si>
-    <t>160001</t>
-  </si>
-  <si>
-    <t>《一只特立独行的猪》</t>
-  </si>
-  <si>
-    <t>图书音像</t>
-  </si>
-  <si>
-    <t>长江文艺出版社</t>
-  </si>
-  <si>
-    <t>220</t>
-  </si>
-  <si>
-    <t>160002</t>
-  </si>
-  <si>
-    <t>《智能革命》</t>
-  </si>
-  <si>
-    <t>百度</t>
-  </si>
-  <si>
-    <t>中信出版集团</t>
-  </si>
-  <si>
-    <t>160003</t>
-  </si>
-  <si>
-    <t>《数据挖掘技术与应用》</t>
-  </si>
-  <si>
-    <t>当当网</t>
-  </si>
-  <si>
-    <t>清华大学出版社</t>
-  </si>
-  <si>
-    <t>160</t>
-  </si>
-  <si>
-    <t>160004</t>
-  </si>
-  <si>
-    <t>《物联网设计》</t>
-  </si>
-  <si>
-    <t>人民邮电出版社</t>
-  </si>
-  <si>
-    <t>170</t>
-  </si>
-  <si>
-    <t>160005</t>
-  </si>
-  <si>
-    <t>《人间失格》</t>
-  </si>
-  <si>
-    <t>天津出版传媒集团</t>
-  </si>
-  <si>
-    <t>天津人民出版社</t>
-  </si>
-  <si>
-    <t>160007</t>
-  </si>
-  <si>
-    <t>《云计算》</t>
-  </si>
-  <si>
-    <t>京东</t>
-  </si>
-  <si>
-    <t>电子工业出版社</t>
-  </si>
-  <si>
-    <t>160008</t>
-  </si>
-  <si>
-    <t>《大数据技术原理与应用》</t>
-  </si>
-  <si>
     <t>160009</t>
   </si>
   <si>
@@ -216,18 +228,6 @@
   </si>
   <si>
     <t>190</t>
-  </si>
-  <si>
-    <t>170001</t>
-  </si>
-  <si>
-    <t>水果刀</t>
-  </si>
-  <si>
-    <t>生活用品</t>
-  </si>
-  <si>
-    <t>十八子作</t>
   </si>
 </sst>
 </file>
@@ -310,333 +310,333 @@
         <v>8</v>
       </c>
       <c r="D2" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E2" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B3" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C3" t="s">
         <v>8</v>
       </c>
       <c r="D3" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E3" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="F3" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B4" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C4" t="s">
         <v>8</v>
       </c>
       <c r="D4" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="E4" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="F4" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B5" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C5" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="D5" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="E5" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="F5" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="D6" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="E6" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="F6" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B7" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="C7" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="D7" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="E7" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="F7" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B8" t="s">
+        <v>36</v>
+      </c>
+      <c r="C8" t="s">
         <v>32</v>
       </c>
-      <c r="C8" t="s">
-        <v>28</v>
-      </c>
       <c r="D8" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="E8" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="F8" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B9" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="C9" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="D9" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="E9" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="F9" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="B10" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="C10" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D10" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E10" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F10" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B11" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="C11" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D11" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="E11" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="F11" t="s">
-        <v>9</v>
+        <v>48</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B12" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="C12" t="s">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="D12" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="E12" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="F12" t="s">
-        <v>50</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B13" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C13" t="s">
-        <v>39</v>
+        <v>8</v>
       </c>
       <c r="D13" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="E13" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="F13" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B14" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C14" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="D14" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="E14" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F14" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B15" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C15" t="s">
-        <v>39</v>
+        <v>8</v>
       </c>
       <c r="D15" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="E15" t="s">
-        <v>62</v>
+        <v>19</v>
       </c>
       <c r="F15" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
+        <v>64</v>
+      </c>
+      <c r="B16" t="s">
+        <v>65</v>
+      </c>
+      <c r="C16" t="s">
+        <v>8</v>
+      </c>
+      <c r="D16" t="s">
         <v>63</v>
       </c>
-      <c r="B16" t="s">
-        <v>64</v>
-      </c>
-      <c r="C16" t="s">
-        <v>39</v>
-      </c>
-      <c r="D16" t="s">
-        <v>61</v>
-      </c>
       <c r="E16" t="s">
-        <v>53</v>
+        <v>66</v>
       </c>
       <c r="F16" t="s">
-        <v>50</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B17" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C17" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="D17" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="E17" t="s">
-        <v>49</v>
+        <v>68</v>
       </c>
       <c r="F17" t="s">
-        <v>67</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B18" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C18" t="s">
-        <v>70</v>
+        <v>8</v>
       </c>
       <c r="D18" t="s">
+        <v>63</v>
+      </c>
+      <c r="E18" t="s">
+        <v>10</v>
+      </c>
+      <c r="F18" t="s">
         <v>71</v>
-      </c>
-      <c r="E18" t="s">
-        <v>71</v>
-      </c>
-      <c r="F18" t="s">
-        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/data/Product.xlsx
+++ b/data/Product.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="73">
   <si>
     <t>商品编号</t>
   </si>
@@ -41,6 +41,9 @@
     <t>食品酒水</t>
   </si>
   <si>
+    <t>可口</t>
+  </si>
+  <si>
     <t>200</t>
   </si>
   <si>
@@ -104,7 +107,7 @@
     <t>罗技</t>
   </si>
   <si>
-    <t>122</t>
+    <t>142</t>
   </si>
   <si>
     <t>130002</t>
@@ -320,333 +323,333 @@
         <v>8</v>
       </c>
       <c r="D2" t="s" s="2">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E2" t="s" s="2">
         <v>7</v>
       </c>
       <c r="F2" t="s" s="2">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C3" t="s" s="2">
         <v>8</v>
       </c>
       <c r="D3" t="s" s="2">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E3" t="s" s="2">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F3" t="s" s="2">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C4" t="s" s="2">
         <v>8</v>
       </c>
       <c r="D4" t="s" s="2">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E4" t="s" s="2">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F4" t="s" s="2">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C5" t="s" s="2">
         <v>8</v>
       </c>
       <c r="D5" t="s" s="2">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E5" t="s" s="2">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F5" t="s" s="2">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D6" t="s" s="2">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E6" t="s" s="2">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F6" t="s" s="2">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C7" t="s" s="2">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D7" t="s" s="2">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E7" t="s" s="2">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F7" t="s" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C8" t="s" s="2">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D8" t="s" s="2">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E8" t="s" s="2">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F8" t="s" s="2">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C9" t="s" s="2">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D9" t="s" s="2">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E9" t="s" s="2">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F9" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C10" t="s" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D10" t="s" s="2">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E10" t="s" s="2">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F10" t="s" s="2">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C11" t="s" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D11" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E11" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F11" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C12" t="s" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D12" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E12" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F12" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C13" t="s" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D13" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E13" t="s" s="2">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F13" t="s" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
+        <v>56</v>
+      </c>
+      <c r="B14" t="s" s="2">
+        <v>57</v>
+      </c>
+      <c r="C14" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D14" t="s" s="2">
+        <v>58</v>
+      </c>
+      <c r="E14" t="s" s="2">
+        <v>59</v>
+      </c>
+      <c r="F14" t="s" s="2">
         <v>55</v>
-      </c>
-      <c r="B14" t="s" s="2">
-        <v>56</v>
-      </c>
-      <c r="C14" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="D14" t="s" s="2">
-        <v>57</v>
-      </c>
-      <c r="E14" t="s" s="2">
-        <v>58</v>
-      </c>
-      <c r="F14" t="s" s="2">
-        <v>54</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C15" t="s" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D15" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E15" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F15" t="s" s="2">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C16" t="s" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D16" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E16" t="s" s="2">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F16" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C17" t="s" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D17" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E17" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F17" t="s" s="2">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C18" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D18" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E18" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F18" t="s" s="2">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
